--- a/src/ACAT/assessment_results/COMP-385_FA24_01_outcomes.xlsx
+++ b/src/ACAT/assessment_results/COMP-385_FA24_01_outcomes.xlsx
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
